--- a/WorkBot/main/backend/ordering/OrderFiles/Webstaurant/Webstaurant_Bakery_20250315.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Webstaurant/Webstaurant_Bakery_20250315.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +502,60 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>544SYPFS045K</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Monin - Vanilla Sugar Free</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>544SYPFS009F</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Monin - Caramel Sugar Free</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/WorkBot/main/backend/ordering/OrderFiles/Webstaurant/Webstaurant_Bakery_20250315.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Webstaurant/Webstaurant_Bakery_20250315.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,6 +556,222 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>245CBB25183</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Box Cake - Full Sheet (Bottom)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>45.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>245663CB</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Box Cake - 6x6x3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>39.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>409ML90266</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Choc Curls - Dark</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>113.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>340.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>612PIE8DEEP</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pie Tin - 8"</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>114.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>114.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>245CCGR1410BL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cake Board - 1/4 Sheet</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>150300865</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bag Paper - 6x13.5 Window</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>319.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>150BB6218N</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bag Paper - 6.5x17.75 Window</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>104.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>209.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5004CAFE</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cup - Espresso (4oz)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
